--- a/Cognitive-Model/input new.xlsx
+++ b/Cognitive-Model/input new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Visual-Neural-Network\Cognitive-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D54B78-817E-4D47-A88D-9E70CBCE9FA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510D69BB-CBFA-4C9F-A995-83B2087369D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{5134CD4B-2642-4CCD-81BF-DDD14D3DFE83}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5134CD4B-2642-4CCD-81BF-DDD14D3DFE83}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -418,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC34688-13A1-4DE5-891C-ACF7DB7295A6}">
   <dimension ref="A1:H370"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="D208" sqref="D208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -5817,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="D208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -5826,7 +5826,10 @@
         <v>0</v>
       </c>
       <c r="G208">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
